--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>741828.4754178766</v>
+        <v>817164.4107271892</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6110993.067254423</v>
+        <v>6110993.067254425</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>173.9597976067751</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>243.2391485592445</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851184</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>87.93270968653189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>28.93420885558123</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>24.78311755148286</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>251.2285928046449</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>20.95866062611016</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>288.2822493900566</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>78.96122915360965</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>164.2532214802693</v>
       </c>
       <c r="H10" t="n">
-        <v>142.9824281355623</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1370,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041376</v>
       </c>
       <c r="H11" t="n">
-        <v>238.3258469238176</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>58.94788863247393</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>256.7273523546854</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>243.2391485592449</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>91.61909562838919</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>168.1158122680966</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>79.76470074482967</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>68.2642023933535</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>221.7048515690722</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>16.34825474388643</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>16.34825474388549</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>135.4126709451607</v>
+        <v>148.4348925031071</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>375.1195677819298</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>20.95866062610926</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2561,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>145.2477902017524</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>126.53888249517</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>58.28185552386316</v>
       </c>
       <c r="I28" t="n">
-        <v>90.08997546904942</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>179.0944876018791</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>126.5388824951709</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>20.95866062610926</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3044,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>14.59479991660536</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>42.62006017122184</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>42.40950920562345</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>291.9075090929929</v>
       </c>
       <c r="E35" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>25.17235481759353</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>91.08961615110624</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3509,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>317.1191748890794</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>235.9375844494532</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.91073356940604</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>221.7048515690722</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>87.44479881665023</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951704</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>167.180359447844</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>16.87651346253263</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4073,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
         <v>18.81721868247742</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>132.7732256808687</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>81.46084344268519</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>3149.8888543296</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>2818.825966986029</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.60582160917</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="X2" t="n">
-        <v>3079.909711953368</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y2" t="n">
-        <v>2689.770379977556</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>832.0660869429007</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2730.773476722119</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2378.004821452004</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2004.539063190924</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2004.539063190924</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4641,31 +4643,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>163.837793613838</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V7" t="n">
-        <v>163.837793613838</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="W7" t="n">
-        <v>163.837793613838</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="X7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670285</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729873</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.480465123123</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>768.6922125248784</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>357.7063077352709</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>357.7063077352709</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734407</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="D10" t="n">
-        <v>770.7703664058492</v>
+        <v>770.7703664058488</v>
       </c>
       <c r="E10" t="n">
-        <v>622.8572728234561</v>
+        <v>622.8572728234557</v>
       </c>
       <c r="F10" t="n">
-        <v>475.9673253255457</v>
+        <v>475.9673253255453</v>
       </c>
       <c r="G10" t="n">
-        <v>308.2644887002647</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1491.569348694472</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C11" t="n">
-        <v>1491.569348694472</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D11" t="n">
-        <v>1133.303650087721</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E11" t="n">
-        <v>1133.303650087721</v>
+        <v>709.615767892637</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3177452981138</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="G11" t="n">
-        <v>307.2452951431102</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5048,7 +5050,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5063,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.542934265599</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995485</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734405</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.169188758593</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5106,46 +5108,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>739.2385409879452</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>570.3023580600383</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>420.1857186477025</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>272.2726250653094</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596505</v>
@@ -5230,19 +5232,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181849</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.569348694473</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C14" t="n">
-        <v>1122.606831754061</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D14" t="n">
-        <v>1122.606831754061</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E14" t="n">
-        <v>736.8185791558167</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>325.8326743662091</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,16 +5278,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5309,19 +5311,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.5429342656</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="W14" t="n">
-        <v>2641.774278995486</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.308520734406</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.169188758594</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>646.6939999491682</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5461,25 +5463,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>828.3424647794079</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>828.3424647794079</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U16" t="n">
-        <v>828.3424647794079</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V16" t="n">
-        <v>828.3424647794079</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W16" t="n">
-        <v>828.3424647794079</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X16" t="n">
-        <v>828.3424647794079</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y16" t="n">
-        <v>828.3424647794079</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1617.939223126803</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C17" t="n">
-        <v>1617.939223126803</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>651.3985183731431</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>236.3260682181396</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y17" t="n">
-        <v>1617.939223126803</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686077</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064753</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080133</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>472.1048757766375</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>303.1686928487306</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>303.1686928487306</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>303.1686928487306</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>303.1686928487306</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>135.4658562234496</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
@@ -5680,43 +5682,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V19" t="n">
-        <v>920.887005818185</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="W19" t="n">
-        <v>920.887005818185</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X19" t="n">
-        <v>692.8974549201677</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y19" t="n">
-        <v>472.1048757766375</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1238.038871968309</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C20" t="n">
-        <v>869.0763550278978</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D20" t="n">
-        <v>510.8106564211473</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E20" t="n">
-        <v>125.022403822903</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F20" t="n">
         <v>108.5090151927147</v>
@@ -5747,55 +5749,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3309.092432978983</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3309.092432978983</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883008</v>
+        <v>3055.56195625282</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.012457539437</v>
+        <v>2724.499068909249</v>
       </c>
       <c r="W20" t="n">
-        <v>2388.243802269323</v>
+        <v>2371.730413639134</v>
       </c>
       <c r="X20" t="n">
-        <v>2014.778044008243</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y20" t="n">
-        <v>1624.638712032431</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>381.6654861422326</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C22" t="n">
-        <v>212.7293032143257</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D22" t="n">
-        <v>212.7293032143257</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E22" t="n">
-        <v>212.7293032143257</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F22" t="n">
-        <v>212.7293032143257</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143257</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>784.1065301160024</v>
+        <v>3175.671586757547</v>
       </c>
       <c r="T22" t="n">
-        <v>784.1065301160024</v>
+        <v>2953.904971327073</v>
       </c>
       <c r="U22" t="n">
-        <v>784.1065301160024</v>
+        <v>2953.904971327073</v>
       </c>
       <c r="V22" t="n">
-        <v>784.1065301160024</v>
+        <v>2699.220483121187</v>
       </c>
       <c r="W22" t="n">
-        <v>784.1065301160024</v>
+        <v>2699.220483121187</v>
       </c>
       <c r="X22" t="n">
-        <v>784.1065301160024</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.3139509724723</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1969.423143692379</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1600.460626751967</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1242.194928145217</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>856.4066755469726</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>445.420770757365</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6011,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W23" t="n">
-        <v>3119.628073993392</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X23" t="n">
-        <v>2746.162315732312</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y23" t="n">
-        <v>2356.022983756501</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
         <v>2407.411984886741</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.5121164321834</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="C25" t="n">
-        <v>66.5121164321834</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="D25" t="n">
-        <v>66.5121164321834</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5121164321834</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K25" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T25" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U25" t="n">
-        <v>610.6137746750309</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V25" t="n">
-        <v>355.929286469144</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W25" t="n">
-        <v>66.5121164321834</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X25" t="n">
-        <v>66.5121164321834</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.5121164321834</v>
+        <v>87.68248070098065</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1238.038871968308</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C26" t="n">
-        <v>869.0763550278964</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D26" t="n">
-        <v>510.8106564211459</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E26" t="n">
-        <v>364.0957168234162</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
         <v>3325.60582160917</v>
@@ -6257,19 +6259,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539436</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W26" t="n">
-        <v>2388.243802269321</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.778044008242</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y26" t="n">
-        <v>1624.63871203243</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6321,7 +6323,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2876.823691567623</v>
+        <v>739.2385409879448</v>
       </c>
       <c r="C28" t="n">
-        <v>2876.823691567623</v>
+        <v>570.3023580600379</v>
       </c>
       <c r="D28" t="n">
-        <v>2876.823691567623</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="E28" t="n">
-        <v>2876.823691567623</v>
+        <v>272.2726250653091</v>
       </c>
       <c r="F28" t="n">
-        <v>2729.933744069712</v>
+        <v>125.3826775673987</v>
       </c>
       <c r="G28" t="n">
-        <v>2562.230907444431</v>
+        <v>125.3826775673987</v>
       </c>
       <c r="H28" t="n">
-        <v>2562.230907444431</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X28" t="n">
-        <v>3097.616270711153</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y28" t="n">
-        <v>2876.823691567623</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1590.514489367197</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C29" t="n">
-        <v>1221.551972426786</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D29" t="n">
-        <v>863.2862738200351</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6485,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3034.411630306084</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3034.411630306084</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V29" t="n">
-        <v>2703.348742962513</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W29" t="n">
-        <v>2350.580087692399</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X29" t="n">
-        <v>1977.114329431319</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y29" t="n">
-        <v>1977.114329431319</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="30">
@@ -6531,28 +6533,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K31" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T31" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U31" t="n">
-        <v>610.6137746750309</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V31" t="n">
-        <v>355.929286469144</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W31" t="n">
-        <v>66.5121164321834</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1986.901740067214</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C32" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3310.863599471185</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="U32" t="n">
-        <v>3057.333122745021</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V32" t="n">
-        <v>2726.27023540145</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W32" t="n">
-        <v>2373.501580131336</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.501580131336</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y32" t="n">
-        <v>2373.501580131336</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="33">
@@ -6768,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>428.615504601943</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="C34" t="n">
-        <v>259.6793216740361</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5626822617004</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>255.567191300814</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>255.567191300814</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>255.567191300814</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>109.3500045186718</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U34" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V34" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W34" t="n">
-        <v>831.0565485757129</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X34" t="n">
-        <v>831.0565485757129</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="Y34" t="n">
-        <v>610.2639694321828</v>
+        <v>403.4802848832071</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796256</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C35" t="n">
-        <v>552.807938939214</v>
+        <v>1200.139242371469</v>
       </c>
       <c r="D35" t="n">
-        <v>194.5422403324635</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E35" t="n">
-        <v>66.51211643218342</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180639</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919559</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943747</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>410.9915598002983</v>
+        <v>700.0944266746549</v>
       </c>
       <c r="C37" t="n">
-        <v>242.0553768723914</v>
+        <v>700.0944266746549</v>
       </c>
       <c r="D37" t="n">
-        <v>91.93873746005568</v>
+        <v>549.9777872623191</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218342</v>
+        <v>402.064693679926</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>402.064693679926</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
         <v>176.6457242372933</v>
@@ -7102,43 +7104,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U37" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V37" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W37" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X37" t="n">
-        <v>631.7841389438285</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y37" t="n">
-        <v>410.9915598002983</v>
+        <v>700.0944266746549</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1032.061124352531</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C38" t="n">
-        <v>663.098607412119</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D38" t="n">
-        <v>304.8329088053685</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E38" t="n">
-        <v>304.8329088053685</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F38" t="n">
-        <v>304.8329088053685</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G38" t="n">
-        <v>304.8329088053685</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7202,22 +7204,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2182.266054653544</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X38" t="n">
-        <v>1808.800296392464</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y38" t="n">
-        <v>1418.660964416652</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>3177.279673892552</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>3177.279673892552</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>3177.279673892552</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>3029.366580310158</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>2882.476632812248</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>2714.773796186967</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>2568.556609404825</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962287</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181849</v>
+        <v>3177.279673892552</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>3177.279673892552</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181849</v>
+        <v>3177.279673892552</v>
       </c>
       <c r="V40" t="n">
-        <v>920.8870058181849</v>
+        <v>3177.279673892552</v>
       </c>
       <c r="W40" t="n">
-        <v>696.9427113039706</v>
+        <v>3177.279673892552</v>
       </c>
       <c r="X40" t="n">
-        <v>468.9531604059532</v>
+        <v>3177.279673892552</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.1605812624231</v>
+        <v>3177.279673892552</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1565.440264581601</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C41" t="n">
-        <v>1196.477747641189</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D41" t="n">
-        <v>838.2120490344385</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>452.4237964361942</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>452.4237964361942</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7436,25 +7438,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2678.274518176916</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2325.505862906802</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X41" t="n">
-        <v>1952.040104645722</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y41" t="n">
-        <v>1952.040104645722</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
         <v>176.0213023927779</v>
@@ -7488,13 +7490,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>530.2513404403937</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C43" t="n">
-        <v>361.3151575124868</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124868</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
         <v>66.5121164321834</v>
@@ -7597,22 +7599,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>530.2513404403937</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V43" t="n">
-        <v>530.2513404403937</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W43" t="n">
-        <v>530.2513404403937</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X43" t="n">
-        <v>530.2513404403937</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y43" t="n">
-        <v>530.2513404403937</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1565.440264581601</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C44" t="n">
-        <v>1196.477747641189</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D44" t="n">
-        <v>838.2120490344385</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E44" t="n">
-        <v>838.2120490344385</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329463</v>
@@ -7661,37 +7663,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2678.274518176916</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2325.505862906802</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X44" t="n">
-        <v>1952.040104645722</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y44" t="n">
-        <v>1952.040104645722</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>518.445961844415</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C46" t="n">
-        <v>518.445961844415</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D46" t="n">
-        <v>368.3293224320793</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E46" t="n">
-        <v>368.3293224320793</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181849</v>
+        <v>3243.322141364035</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181849</v>
+        <v>2988.637653158148</v>
       </c>
       <c r="W46" t="n">
-        <v>920.8870058181849</v>
+        <v>2699.220483121187</v>
       </c>
       <c r="X46" t="n">
-        <v>920.8870058181849</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="Y46" t="n">
-        <v>700.0944266746548</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
   </sheetData>
@@ -22550,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,16 +22603,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>77.03537435212692</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>126.4919521192246</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,22 +22710,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>1.772586778758495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>101.83631564491</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22784,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>325.7488327651017</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22841,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>302.969140918652</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22960,7 +22962,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>34.98324540096797</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>204.750994762927</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23021,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6.325514997263895</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>307.276709502444</v>
       </c>
     </row>
     <row r="9">
@@ -23115,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23191,10 +23193,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1.772586778758892</v>
       </c>
       <c r="H10" t="n">
-        <v>1.772586778758466</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>181.1251564493159</v>
       </c>
       <c r="H11" t="n">
-        <v>56.28191746350291</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23315,7 +23317,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>86.47315939045731</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23470,16 +23472,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>154.194373298768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23549,16 +23551,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>7.756023399657067</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14992970305271</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>126.4919521192238</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>306.4732379112239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>76.49081252096728</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23947,7 +23949,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>30.43279175475581</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23978,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>390.527790997825</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>92.83950704429034</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24144,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24175,25 +24177,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>54.35635438628117</v>
+        <v>41.33413282833476</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>35.80215787152366</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>145.067147632919</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>198.5902886500596</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24449,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>236.6825798705094</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,16 +24496,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>222.702086222243</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>86.47315939045762</v>
       </c>
       <c r="I28" t="n">
-        <v>6.262444940788669</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>24.82348253774103</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>124.4562894637311</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24856,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>198.5902886500596</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629279</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>189.3231702230148</v>
+        <v>186.5668494326244</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>103.8139024753473</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25092,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>53.94291120421464</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25157,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>62.77553252769002</v>
       </c>
       <c r="E35" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -25172,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>121.2616078289756</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>74.93619210792198</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25397,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>64.81119518318241</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>58.67017993786723</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25442,13 +25444,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>131.8582917620359</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>64.81814676751881</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>323.4769268368032</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>222.7020862222426</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25837,10 +25839,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>119.0314787577689</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="44">
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>389.9995322791788</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.64782234206257</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26077,19 +26079,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>204.7509947629277</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>806150.3945534367</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>806150.3945534368</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534363</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>345493.0262371869</v>
+      </c>
+      <c r="C2" t="n">
+        <v>345493.0262371869</v>
+      </c>
+      <c r="D2" t="n">
+        <v>345493.0262371869</v>
+      </c>
+      <c r="E2" t="n">
+        <v>345493.0262371868</v>
+      </c>
+      <c r="F2" t="n">
         <v>345493.0262371867</v>
       </c>
-      <c r="C2" t="n">
-        <v>345493.0262371868</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>345493.0262371867</v>
       </c>
-      <c r="E2" t="n">
-        <v>345493.0262371869</v>
-      </c>
-      <c r="F2" t="n">
-        <v>345493.0262371869</v>
-      </c>
-      <c r="G2" t="n">
-        <v>345493.0262371869</v>
-      </c>
       <c r="H2" t="n">
-        <v>345493.0262371868</v>
+        <v>345493.0262371867</v>
       </c>
       <c r="I2" t="n">
         <v>345493.0262371868</v>
@@ -26338,22 +26340,22 @@
         <v>345493.0262371869</v>
       </c>
       <c r="K2" t="n">
-        <v>345493.0262371868</v>
+        <v>345493.026237187</v>
       </c>
       <c r="L2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="M2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371867</v>
       </c>
       <c r="N2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371867</v>
       </c>
       <c r="O2" t="n">
-        <v>345493.0262371867</v>
+        <v>345493.0262371868</v>
       </c>
       <c r="P2" t="n">
-        <v>345493.0262371868</v>
+        <v>345493.026237187</v>
       </c>
     </row>
     <row r="3">
@@ -26393,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="C4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="D4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26488,16 +26490,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26509,7 +26511,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-1091770.307040805</v>
       </c>
       <c r="C6" t="n">
-        <v>236974.4386867874</v>
+        <v>236974.4386867875</v>
       </c>
       <c r="D6" t="n">
-        <v>236974.4386867873</v>
+        <v>236974.4386867878</v>
       </c>
       <c r="E6" t="n">
+        <v>270602.0386867874</v>
+      </c>
+      <c r="F6" t="n">
+        <v>270602.0386867872</v>
+      </c>
+      <c r="G6" t="n">
+        <v>270602.0386867872</v>
+      </c>
+      <c r="H6" t="n">
+        <v>270602.0386867872</v>
+      </c>
+      <c r="I6" t="n">
         <v>270602.0386867875</v>
       </c>
-      <c r="F6" t="n">
+      <c r="J6" t="n">
+        <v>53070.83628951009</v>
+      </c>
+      <c r="K6" t="n">
         <v>270602.0386867875</v>
       </c>
-      <c r="G6" t="n">
-        <v>270602.0386867874</v>
-      </c>
-      <c r="H6" t="n">
-        <v>270602.0386867874</v>
-      </c>
-      <c r="I6" t="n">
-        <v>270602.0386867874</v>
-      </c>
-      <c r="J6" t="n">
-        <v>53070.83628951001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>270602.0386867874</v>
-      </c>
       <c r="L6" t="n">
-        <v>270602.0386867875</v>
+        <v>270602.0386867872</v>
       </c>
       <c r="M6" t="n">
-        <v>270602.0386867874</v>
+        <v>270602.0386867872</v>
       </c>
       <c r="N6" t="n">
-        <v>270602.0386867875</v>
+        <v>270602.0386867872</v>
       </c>
       <c r="O6" t="n">
         <v>270602.0386867874</v>
       </c>
       <c r="P6" t="n">
-        <v>270602.0386867874</v>
+        <v>270602.0386867875</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="E4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32257,7 +32259,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
         <v>99.83230779806951</v>
@@ -32315,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32552,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33655,7 +33657,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
         <v>557.281137600381</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33974,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34135,7 +34137,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
         <v>769.2673490574995</v>
@@ -34208,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34372,7 +34374,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34445,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36200,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O25" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K28" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L28" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M28" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N28" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O28" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P28" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K31" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L31" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M31" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N31" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O31" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P31" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37622,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37783,7 +37785,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38020,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
